--- a/storage/RA/AVISON/receipts/240306(영)_유민경RA_AVISON 필사모임 리턴즈.xlsx
+++ b/storage/RA/AVISON/receipts/240306(영)_유민경RA_AVISON 필사모임 리턴즈.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1580" yWindow="8140" windowWidth="29900" windowHeight="20120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4300" yWindow="780" windowWidth="29900" windowHeight="20120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4. 법카-영수증 제출양식(평일)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="4. 법카-영수증 제출양식(평일)" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'4. 법카-영수증 제출양식(평일)'!$A$1:$H$20</definedName>
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0_ "/>
+  </numFmts>
   <fonts count="12">
     <font>
       <name val="맑은 고딕"/>
@@ -428,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -529,6 +531,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -545,6 +556,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -962,7 +976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -970,7 +984,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="143" zoomScaleNormal="100" zoomScaleSheetLayoutView="143" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -1055,14 +1069,14 @@
         </is>
       </c>
       <c r="E3" s="27" t="n"/>
-      <c r="F3" s="36" t="inlineStr">
+      <c r="F3" s="39" t="inlineStr">
         <is>
           <t>구매 내역 및 수량
 (영수증에 구매 내역이 있더라도 잘 안보일 경우 기재)</t>
         </is>
       </c>
-      <c r="G3" s="37" t="n"/>
-      <c r="H3" s="38" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="41" t="n"/>
       <c r="I3" s="27" t="n"/>
       <c r="J3" s="27" t="n"/>
       <c r="K3" s="27" t="n"/>
@@ -1097,12 +1111,12 @@
           <t>AVISON 필사모임 리턴즈</t>
         </is>
       </c>
-      <c r="C4" s="39" t="n"/>
-      <c r="D4" s="40" t="n"/>
+      <c r="C4" s="42" t="n"/>
+      <c r="D4" s="43" t="n"/>
       <c r="E4" s="27" t="n"/>
-      <c r="F4" s="41" t="n"/>
-      <c r="G4" s="42" t="n"/>
-      <c r="H4" s="43" t="n"/>
+      <c r="F4" s="44" t="n"/>
+      <c r="G4" s="45" t="n"/>
+      <c r="H4" s="46" t="n"/>
       <c r="I4" s="27" t="n"/>
       <c r="J4" s="27" t="n"/>
       <c r="K4" s="27" t="n"/>
@@ -1182,11 +1196,11 @@
           <t>영수증 금액</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="47" t="n">
         <v>35000</v>
       </c>
-      <c r="C6" s="39" t="n"/>
-      <c r="D6" s="40" t="n"/>
+      <c r="C6" s="42" t="n"/>
+      <c r="D6" s="43" t="n"/>
       <c r="E6" s="27" t="n"/>
       <c r="F6" s="4" t="n"/>
       <c r="G6" s="4" t="n"/>
@@ -1221,8 +1235,8 @@
           <t>최저가 업체</t>
         </is>
       </c>
-      <c r="C7" s="39" t="n"/>
-      <c r="D7" s="40" t="n"/>
+      <c r="C7" s="42" t="n"/>
+      <c r="D7" s="43" t="n"/>
       <c r="E7" s="27" t="n"/>
       <c r="F7" s="4" t="n"/>
       <c r="G7" s="4" t="n"/>
@@ -1247,10 +1261,10 @@
       <c r="Z7" s="27" t="n"/>
     </row>
     <row r="8" ht="24" customHeight="1">
-      <c r="A8" s="44" t="n"/>
-      <c r="B8" s="37" t="n"/>
-      <c r="C8" s="37" t="n"/>
-      <c r="D8" s="45" t="n"/>
+      <c r="A8" s="48" t="n"/>
+      <c r="B8" s="40" t="n"/>
+      <c r="C8" s="40" t="n"/>
+      <c r="D8" s="49" t="n"/>
       <c r="E8" s="27" t="n"/>
       <c r="F8" s="5" t="n"/>
       <c r="G8" s="6" t="n"/>
@@ -1275,8 +1289,8 @@
       <c r="Z8" s="27" t="n"/>
     </row>
     <row r="9" ht="24" customHeight="1">
-      <c r="A9" s="46" t="n"/>
-      <c r="D9" s="47" t="n"/>
+      <c r="A9" s="50" t="n"/>
+      <c r="D9" s="51" t="n"/>
       <c r="E9" s="27" t="n"/>
       <c r="F9" s="8" t="n"/>
       <c r="G9" s="9" t="n"/>
@@ -1301,8 +1315,8 @@
       <c r="Z9" s="27" t="n"/>
     </row>
     <row r="10" ht="24" customHeight="1">
-      <c r="A10" s="46" t="n"/>
-      <c r="D10" s="47" t="n"/>
+      <c r="A10" s="50" t="n"/>
+      <c r="D10" s="51" t="n"/>
       <c r="E10" s="27" t="n"/>
       <c r="F10" s="8" t="n"/>
       <c r="G10" s="9" t="n"/>
@@ -1327,8 +1341,8 @@
       <c r="Z10" s="27" t="n"/>
     </row>
     <row r="11" ht="24" customHeight="1">
-      <c r="A11" s="46" t="n"/>
-      <c r="D11" s="47" t="n"/>
+      <c r="A11" s="50" t="n"/>
+      <c r="D11" s="51" t="n"/>
       <c r="E11" s="27" t="n"/>
       <c r="F11" s="8" t="n"/>
       <c r="G11" s="9" t="n"/>
@@ -1353,8 +1367,8 @@
       <c r="Z11" s="27" t="n"/>
     </row>
     <row r="12" ht="24" customHeight="1">
-      <c r="A12" s="46" t="n"/>
-      <c r="D12" s="47" t="n"/>
+      <c r="A12" s="50" t="n"/>
+      <c r="D12" s="51" t="n"/>
       <c r="E12" s="27" t="n"/>
       <c r="F12" s="8" t="n"/>
       <c r="G12" s="9" t="n"/>
@@ -1379,8 +1393,8 @@
       <c r="Z12" s="27" t="n"/>
     </row>
     <row r="13" ht="24" customHeight="1">
-      <c r="A13" s="46" t="n"/>
-      <c r="D13" s="47" t="n"/>
+      <c r="A13" s="50" t="n"/>
+      <c r="D13" s="51" t="n"/>
       <c r="E13" s="27" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="9" t="n"/>
@@ -1405,8 +1419,8 @@
       <c r="Z13" s="27" t="n"/>
     </row>
     <row r="14" ht="24" customHeight="1">
-      <c r="A14" s="46" t="n"/>
-      <c r="D14" s="47" t="n"/>
+      <c r="A14" s="50" t="n"/>
+      <c r="D14" s="51" t="n"/>
       <c r="E14" s="27" t="n"/>
       <c r="F14" s="8" t="n"/>
       <c r="G14" s="9" t="n"/>
@@ -1435,8 +1449,8 @@
       <c r="Z14" s="27" t="n"/>
     </row>
     <row r="15" ht="24" customHeight="1">
-      <c r="A15" s="46" t="n"/>
-      <c r="D15" s="47" t="n"/>
+      <c r="A15" s="50" t="n"/>
+      <c r="D15" s="51" t="n"/>
       <c r="E15" s="27" t="n"/>
       <c r="F15" s="8" t="n"/>
       <c r="G15" s="9" t="n"/>
@@ -1461,8 +1475,8 @@
       <c r="Z15" s="27" t="n"/>
     </row>
     <row r="16" ht="24" customHeight="1">
-      <c r="A16" s="46" t="n"/>
-      <c r="D16" s="47" t="n"/>
+      <c r="A16" s="50" t="n"/>
+      <c r="D16" s="51" t="n"/>
       <c r="E16" s="27" t="n"/>
       <c r="F16" s="8" t="n"/>
       <c r="G16" s="9" t="n"/>
@@ -1487,8 +1501,8 @@
       <c r="Z16" s="27" t="n"/>
     </row>
     <row r="17" ht="24" customHeight="1">
-      <c r="A17" s="46" t="n"/>
-      <c r="D17" s="47" t="n"/>
+      <c r="A17" s="50" t="n"/>
+      <c r="D17" s="51" t="n"/>
       <c r="E17" s="27" t="n"/>
       <c r="F17" s="8" t="n"/>
       <c r="G17" s="9" t="n"/>
@@ -1513,8 +1527,8 @@
       <c r="Z17" s="27" t="n"/>
     </row>
     <row r="18" ht="24" customHeight="1">
-      <c r="A18" s="46" t="n"/>
-      <c r="D18" s="47" t="n"/>
+      <c r="A18" s="50" t="n"/>
+      <c r="D18" s="51" t="n"/>
       <c r="E18" s="27" t="n"/>
       <c r="F18" s="8" t="n"/>
       <c r="G18" s="9" t="n"/>
@@ -1539,8 +1553,8 @@
       <c r="Z18" s="27" t="n"/>
     </row>
     <row r="19" ht="24" customHeight="1">
-      <c r="A19" s="46" t="n"/>
-      <c r="D19" s="47" t="n"/>
+      <c r="A19" s="50" t="n"/>
+      <c r="D19" s="51" t="n"/>
       <c r="E19" s="27" t="n"/>
       <c r="F19" s="8" t="n"/>
       <c r="G19" s="9" t="n"/>
@@ -1565,10 +1579,10 @@
       <c r="Z19" s="27" t="n"/>
     </row>
     <row r="20" ht="24" customHeight="1">
-      <c r="A20" s="41" t="n"/>
-      <c r="B20" s="42" t="n"/>
-      <c r="C20" s="42" t="n"/>
-      <c r="D20" s="48" t="n"/>
+      <c r="A20" s="44" t="n"/>
+      <c r="B20" s="45" t="n"/>
+      <c r="C20" s="45" t="n"/>
+      <c r="D20" s="52" t="n"/>
       <c r="E20" s="27" t="n"/>
       <c r="F20" s="12" t="n"/>
       <c r="G20" s="13" t="n"/>
@@ -29056,17 +29070,17 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B22:H22"/>
     <mergeCell ref="A8:D20"/>
-    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="F3:H4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>